--- a/TESTSUITE/TS01.xlsx
+++ b/TESTSUITE/TS01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12520" tabRatio="462" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="12520" tabRatio="462"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>Testcase</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>TC_03</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Mã testcase</t>
@@ -490,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -519,7 +516,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +539,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,9 +562,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,25 +591,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,8 +606,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,52 +638,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +684,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,31 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,127 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,30 +883,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,28 +911,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,123 +944,158 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,26 +1104,26 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,8 +1500,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1552,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
@@ -1567,10 +1564,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1585,40 +1582,40 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" s="14" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
       <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -1627,28 +1624,28 @@
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" s="14" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1659,11 +1656,11 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1671,13 +1668,13 @@
     <row r="6" s="14" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="12"/>
@@ -1687,11 +1684,11 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1699,13 +1696,13 @@
     <row r="8" s="14" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="12"/>
@@ -1715,11 +1712,11 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1729,13 +1726,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="12"/>
@@ -1745,11 +1742,11 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1757,16 +1754,16 @@
     <row r="12" s="15" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1774,16 +1771,16 @@
     <row r="13" s="15" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1791,16 +1788,16 @@
     <row r="14" s="15" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1808,16 +1805,16 @@
     <row r="15" s="15" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1827,13 +1824,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="12"/>
@@ -1843,11 +1840,11 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1855,19 +1852,45 @@
     <row r="18" s="15" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1" spans="1:7">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
+    </row>
+    <row r="19" s="14" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" s="14" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,67 +1917,67 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1985,84 +2008,84 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" outlineLevel="1" spans="1:4">
       <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" outlineLevel="1" spans="1:4">
       <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" outlineLevel="1" spans="1:4">
       <c r="A6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" outlineLevel="1" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" outlineLevel="1" spans="1:4">
       <c r="A8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" outlineLevel="1" spans="1:4">
       <c r="A9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
@@ -2095,396 +2118,396 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>146</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
